--- a/£WIZZ.xlsx
+++ b/£WIZZ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016E6B71-A16F-430E-942E-8FC32EF0D9ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B954087-BBD3-460D-AA27-9C78453CF5B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5655" yWindow="2265" windowWidth="23520" windowHeight="15435" xr2:uid="{E69BDC33-C686-0B49-89CB-BBA47E8EA84A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>£WIZZ</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>FY19</t>
+  </si>
+  <si>
+    <t>Wizz drawing up plans for flights from UK to Middle East &amp; Asia</t>
+  </si>
+  <si>
+    <t>Using new A321-XLR to destinations including UAE, Israel &amp; Saudi Arabia</t>
   </si>
 </sst>
 </file>
@@ -281,7 +287,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,6 +333,21 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -446,11 +467,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -539,8 +561,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -561,16 +586,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>218707</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>154568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -600,8 +625,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3492500" y="165101"/>
-          <a:ext cx="1615707" cy="749299"/>
+          <a:off x="2314575" y="76201"/>
+          <a:ext cx="962025" cy="440317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1028,7 +1053,7 @@
   <dimension ref="B2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F5" sqref="F5:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1053,6 +1078,17 @@
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
+      <c r="F5" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
@@ -1062,6 +1098,17 @@
         <v>23.2</v>
       </c>
       <c r="D6" s="4"/>
+      <c r="F6" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
@@ -1073,6 +1120,17 @@
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
@@ -1083,17 +1141,15 @@
         <v>2405.84</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="F8" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="35"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
@@ -1105,9 +1161,7 @@
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="F9" s="44"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1127,9 +1181,7 @@
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="F10" s="44"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1148,9 +1200,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="F11" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="F11" s="44"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1169,15 +1219,54 @@
         <v>2405.84</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
+      <c r="F12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="33" t="s">
@@ -1241,7 +1330,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F5:N5"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
@@ -1252,8 +1341,11 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B21:D21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{30531D17-5AB3-4381-A18C-6F1F3D563116}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/£WIZZ.xlsx
+++ b/£WIZZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B954087-BBD3-460D-AA27-9C78453CF5B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA9EE9A-8A89-E54C-B4CE-96D3A7E8915E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="2265" windowWidth="23520" windowHeight="15435" xr2:uid="{E69BDC33-C686-0B49-89CB-BBA47E8EA84A}"/>
+    <workbookView xWindow="5660" yWindow="2260" windowWidth="23520" windowHeight="15440" xr2:uid="{E69BDC33-C686-0B49-89CB-BBA47E8EA84A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>£WIZZ</t>
   </si>
@@ -263,9 +273,6 @@
     <t>H121</t>
   </si>
   <si>
-    <t>HY122</t>
-  </si>
-  <si>
     <t>H222</t>
   </si>
   <si>
@@ -276,6 +283,30 @@
   </si>
   <si>
     <t>Using new A321-XLR to destinations including UAE, Israel &amp; Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Company Profile</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>H122</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Budapest, Hungary</t>
   </si>
 </sst>
 </file>
@@ -472,7 +503,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -528,6 +559,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,13 +600,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1050,56 +1102,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ECED28-5A53-7645-BDF4-D0E0BE6827BA}">
-  <dimension ref="B2:N24"/>
+  <dimension ref="B2:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:N15"/>
+      <selection activeCell="C30" sqref="C30:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="33" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="F5" s="33" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="F5" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="39"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="14">
-        <v>23.2</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="F6" s="45" t="s">
-        <v>81</v>
+      <c r="F6" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1110,7 +1162,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1132,16 +1184,16 @@
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>2405.84</v>
+        <v>1799.1950000000002</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="F8" s="44"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1151,7 +1203,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="31" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1213,7 @@
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1171,7 +1223,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="31" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1233,7 @@
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1191,7 +1243,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="31" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="F11" s="44"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1210,13 +1262,13 @@
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>2405.84</v>
+        <v>1799.1950000000002</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="21" t="s">
@@ -1231,7 +1283,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F13" s="22" t="s">
         <v>29</v>
       </c>
@@ -1244,7 +1296,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F14" s="22" t="s">
         <v>30</v>
       </c>
@@ -1257,7 +1309,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1268,68 +1320,125 @@
       <c r="M15" s="9"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="33" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="41"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="45"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="11"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="12"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="33" t="s">
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="36" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="13">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="36" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="13">
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="38" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="16">
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="45"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="48">
+        <v>2003</v>
+      </c>
+      <c r="D29" s="45"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="33"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="45"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="33"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="45"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="52"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -1357,17 +1466,17 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1378,14 +1487,14 @@
         <v>76</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>21</v>
@@ -1397,7 +1506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -1414,7 +1523,7 @@
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="23" t="s">
         <v>32</v>
@@ -1444,7 +1553,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="B4" s="23" t="s">
         <v>33</v>
@@ -1474,7 +1583,7 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5" s="24" t="s">
         <v>19</v>
@@ -1508,7 +1617,7 @@
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="23" t="s">
         <v>34</v>
@@ -1533,7 +1642,7 @@
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1544,7 +1653,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1557,7 +1666,7 @@
         <v>869.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1578,7 +1687,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,7 +1698,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1600,7 +1709,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1611,7 +1720,7 @@
         <v>545.9</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1622,7 +1731,7 @@
         <v>446.3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1633,7 +1742,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1654,7 +1763,7 @@
         <v>-465.19999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1673,7 +1782,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1692,7 +1801,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1711,7 +1820,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1732,7 +1841,7 @@
         <v>-641.39999999999986</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1751,7 +1860,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1772,7 +1881,7 @@
         <v>-642.29999999999984</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
@@ -1785,7 +1894,7 @@
         <v>-6.5002008706787802</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1796,7 +1905,7 @@
         <v>98.812331</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1817,7 +1926,7 @@
         <v>0.47730688307784791</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
@@ -1838,7 +1947,7 @@
         <v>-0.27965133754132848</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
@@ -1859,7 +1968,7 @@
         <v>-0.38611361587015319</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,7 +1989,7 @@
         <v>5.4102795311091075E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="2" t="s">
         <v>26</v>
@@ -1898,77 +2007,77 @@
         <v>1.2510148849797025</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>61</v>
       </c>
@@ -1983,92 +2092,92 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>74</v>
       </c>
@@ -2086,7 +2195,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/£WIZZ.xlsx
+++ b/£WIZZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA9EE9A-8A89-E54C-B4CE-96D3A7E8915E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2525611-3205-40CA-B651-A7A03CCDB6D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="2260" windowWidth="23520" windowHeight="15440" xr2:uid="{E69BDC33-C686-0B49-89CB-BBA47E8EA84A}"/>
+    <workbookView xWindow="5655" yWindow="2265" windowWidth="23520" windowHeight="15435" xr2:uid="{E69BDC33-C686-0B49-89CB-BBA47E8EA84A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>£WIZZ</t>
   </si>
@@ -307,6 +297,9 @@
   </si>
   <si>
     <t>Budapest, Hungary</t>
+  </si>
+  <si>
+    <t>IPO</t>
   </si>
 </sst>
 </file>
@@ -567,6 +560,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,6 +581,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,35 +602,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1105,44 +1098,44 @@
   <dimension ref="B2:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="37" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="F5" s="37" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="F5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="39"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="43"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1155,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
@@ -1184,7 +1177,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
         <v>5</v>
       </c>
@@ -1203,7 +1196,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
         <v>6</v>
       </c>
@@ -1223,7 +1216,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1236,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1255,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>9</v>
       </c>
@@ -1283,7 +1276,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F13" s="22" t="s">
         <v>29</v>
       </c>
@@ -1296,7 +1289,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F14" s="22" t="s">
         <v>30</v>
       </c>
@@ -1309,7 +1302,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1320,125 +1313,123 @@
       <c r="M15" s="9"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="37" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="50" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="45"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
-      <c r="C18" s="44"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="45"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="37" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="40" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="41"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="13">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="40" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="41"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="13">
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="42" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="37" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="44" t="s">
         <v>89</v>
       </c>
       <c r="D28" s="45"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="44">
         <v>2003</v>
       </c>
       <c r="D29" s="45"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="33"/>
-      <c r="C30" s="48"/>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="44">
+        <v>2015</v>
+      </c>
       <c r="D30" s="45"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="33"/>
-      <c r="C31" s="48"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="45"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="52"/>
+      <c r="D33" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -1449,6 +1440,12 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{30531D17-5AB3-4381-A18C-6F1F3D563116}"/>
@@ -1469,14 +1466,14 @@
       <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1506,7 +1503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -1523,7 +1520,7 @@
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="23" t="s">
         <v>32</v>
@@ -1553,7 +1550,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="23" t="s">
         <v>33</v>
@@ -1583,7 +1580,7 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="24" t="s">
         <v>19</v>
@@ -1617,7 +1614,7 @@
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="23" t="s">
         <v>34</v>
@@ -1642,7 +1639,7 @@
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1653,7 +1650,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>869.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1709,7 +1706,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1720,7 +1717,7 @@
         <v>545.9</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1731,7 +1728,7 @@
         <v>446.3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1742,7 +1739,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1763,7 +1760,7 @@
         <v>-465.19999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1782,7 +1779,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,7 +1817,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1841,7 +1838,7 @@
         <v>-641.39999999999986</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1860,7 +1857,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1881,7 +1878,7 @@
         <v>-642.29999999999984</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
@@ -1894,7 +1891,7 @@
         <v>-6.5002008706787802</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1905,7 +1902,7 @@
         <v>98.812331</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,7 +1923,7 @@
         <v>0.47730688307784791</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
@@ -1947,7 +1944,7 @@
         <v>-0.27965133754132848</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
@@ -1968,7 +1965,7 @@
         <v>-0.38611361587015319</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1989,7 +1986,7 @@
         <v>5.4102795311091075E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30" s="2" t="s">
         <v>26</v>
@@ -2007,77 +2004,77 @@
         <v>1.2510148849797025</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2092,92 +2089,92 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>74</v>
       </c>
@@ -2195,7 +2192,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/£WIZZ.xlsx
+++ b/£WIZZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2525611-3205-40CA-B651-A7A03CCDB6D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6197CA-DC2A-42FC-8B47-0C65FACEE32A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="2265" windowWidth="23520" windowHeight="15435" xr2:uid="{E69BDC33-C686-0B49-89CB-BBA47E8EA84A}"/>
+    <workbookView xWindow="5655" yWindow="2265" windowWidth="23520" windowHeight="15435" activeTab="1" xr2:uid="{E69BDC33-C686-0B49-89CB-BBA47E8EA84A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -306,12 +306,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -342,12 +341,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -494,9 +487,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -528,8 +521,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -540,12 +531,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -559,19 +545,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,33 +561,52 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1097,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ECED28-5A53-7645-BDF4-D0E0BE6827BA}">
   <dimension ref="B2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1118,32 +1117,32 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="F5" s="41" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="F5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="43"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="14">
         <v>17.350000000000001</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G6" s="6"/>
@@ -1156,7 +1155,7 @@
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="14">
@@ -1165,7 +1164,7 @@
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="6"/>
@@ -1178,7 +1177,7 @@
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14">
@@ -1186,7 +1185,7 @@
         <v>1799.1950000000002</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="F8" s="35"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1197,7 +1196,7 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="14">
@@ -1206,7 +1205,7 @@
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1217,7 +1216,7 @@
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="14">
@@ -1226,7 +1225,7 @@
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1237,7 +1236,7 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="14">
@@ -1245,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="F11" s="35"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1256,7 +1255,7 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="15">
@@ -1264,7 +1263,7 @@
         <v>1799.1950000000002</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="6"/>
@@ -1277,7 +1276,7 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="6"/>
@@ -1290,7 +1289,7 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="6"/>
@@ -1314,122 +1313,129 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="45"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="40"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="45"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="41" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="46" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="13">
         <v>153</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="46" t="s">
+      <c r="J22" s="46"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="13">
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="48" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="41" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="33" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="45"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="33" t="s">
+      <c r="D28" s="40"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="45">
         <v>2003</v>
       </c>
-      <c r="D29" s="45"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="33" t="s">
+      <c r="D29" s="40"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="45">
         <v>2015</v>
       </c>
-      <c r="D30" s="45"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="33"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="33" t="s">
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="26"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="40"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="40"/>
+      <c r="D33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -1440,18 +1446,13 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{30531D17-5AB3-4381-A18C-6F1F3D563116}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1459,722 +1460,744 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470FD1B7-680A-534C-9F3A-8B394691D61E}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="1"/>
+    <col min="3" max="17" width="9.125" style="48"/>
+    <col min="18" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="17">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="49">
         <v>1366.1</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="49">
         <v>1508.5</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="49">
         <v>325.7</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="49">
         <v>732.1</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="49">
         <v>953</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="49">
         <v>1252.8</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="49">
         <v>413.3</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="49">
         <v>931.4</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47">
         <f>I3+I4</f>
         <v>2319.1</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="47">
         <f>J3+J4</f>
         <v>2761.3</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="47">
         <f>K3+K4</f>
         <v>739</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="47">
         <f>L3+L4</f>
         <v>1663.5</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="K6" s="17">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49">
         <v>132.9</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="49">
         <v>220.5</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="48">
         <v>347.5</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="48">
         <v>649</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="48">
         <f>K7+K6</f>
         <v>480.4</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="48">
         <f>L7+L6</f>
         <v>869.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50">
         <f>K5-K8</f>
         <v>258.60000000000002</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="50">
         <f>L5-L8</f>
         <v>794</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="48">
         <v>19.600000000000001</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="48">
         <v>43.4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="48">
         <v>165.7</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="48">
         <v>170.4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="48">
         <v>254.9</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="48">
         <v>545.9</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="48">
         <v>345.3</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="48">
         <v>446.3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="48">
         <v>1.2</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="48">
         <v>53.2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2">
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50">
         <f>K9-K10-K11-K12-K13-K14</f>
         <v>-528.1</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="50">
         <f>L9-L10-L11-L12-L13-L14</f>
         <v>-465.19999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="1">
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="48">
         <v>11.6</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="48">
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1">
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="48">
         <v>78.400000000000006</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="48">
         <v>89.5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="1">
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="48">
         <v>28.4</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="48">
         <v>89.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="1">
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48">
         <f>K15+K16-K17-K18</f>
         <v>-623.29999999999995</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="48">
         <f>L15+L16-L17-L18</f>
         <v>-641.39999999999986</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="1">
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="48">
         <v>9.5</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="48">
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="1">
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48">
         <f>K19-K20</f>
         <v>-632.79999999999995</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="48">
         <f>L19-L20</f>
         <v>-642.29999999999984</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="48">
         <f>K21/K23</f>
         <v>-7.3972202536825717</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="48">
         <f>L21/L23</f>
         <v>-6.5002008706787802</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="48">
         <v>85.545648</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="48">
         <v>98.812331</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="51">
         <f>I9/I5</f>
         <v>0</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="51">
         <f>J9/J5</f>
         <v>0</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="51">
         <f>K9/K5</f>
         <v>0.34993234100135323</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="51">
         <f>L9/L5</f>
         <v>0.47730688307784791</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="51">
         <f>I15/I5</f>
         <v>0</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="51">
         <f>J15/J5</f>
         <v>0</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="51">
         <f>K15/K5</f>
         <v>-0.71461434370771315</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="51">
         <f>L15/L5</f>
         <v>-0.27965133754132848</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="51">
         <f>I21/I5</f>
         <v>0</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="51">
         <f>J21/J5</f>
         <v>0</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="51">
         <f>K21/K5</f>
         <v>-0.85629228687415415</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="51">
         <f>L21/L5</f>
         <v>-0.38611361587015319</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="51">
         <f>I20/I5</f>
         <v>0</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="51">
         <f>J20/J5</f>
         <v>0</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="51">
         <f>K20/K5</f>
         <v>1.2855209742895805E-2</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="51">
         <f>L20/L5</f>
         <v>5.4102795311091075E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="26">
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54">
         <f>J5/I5-1</f>
         <v>0.1906774179638655</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="54">
         <f>K5/J5-1</f>
         <v>-0.73237243327418244</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="54">
         <f>L5/K5-1</f>
         <v>1.2510148849797025</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>74</v>
       </c>

--- a/£WIZZ.xlsx
+++ b/£WIZZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6197CA-DC2A-42FC-8B47-0C65FACEE32A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7929D9-5A31-414A-B3BA-4D9C4B91332D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="2265" windowWidth="23520" windowHeight="15435" activeTab="1" xr2:uid="{E69BDC33-C686-0B49-89CB-BBA47E8EA84A}"/>
+    <workbookView xWindow="5655" yWindow="2265" windowWidth="23520" windowHeight="15435" xr2:uid="{E69BDC33-C686-0B49-89CB-BBA47E8EA84A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>£WIZZ</t>
   </si>
@@ -300,6 +300,24 @@
   </si>
   <si>
     <t>IPO</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>Company Structure</t>
+  </si>
+  <si>
+    <t>Wizz Air UK</t>
+  </si>
+  <si>
+    <t>Wizz Air</t>
+  </si>
+  <si>
+    <t>Wizz Air Abu-Dabi</t>
+  </si>
+  <si>
+    <t>Fleet</t>
   </si>
 </sst>
 </file>
@@ -310,7 +328,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,6 +383,21 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -489,13 +522,11 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -525,9 +556,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -552,43 +580,10 @@
     <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -607,6 +602,71 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1094,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ECED28-5A53-7645-BDF4-D0E0BE6827BA}">
-  <dimension ref="B2:N33"/>
+  <dimension ref="B2:V36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1105,337 +1165,402 @@
     <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="F5" s="32" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="F5" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="24" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+      <c r="Q5" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="44"/>
+      <c r="S5" s="45"/>
+      <c r="U5" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" s="45"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>17.350000000000001</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+      <c r="D6" s="62"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="Q6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="5"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>103.7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="24" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="5"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <f>C6*C7</f>
         <v>1799.1950000000002</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
+      <c r="D8" s="62"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>0</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+      <c r="F9" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="Q9" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+      <c r="F10" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <f>C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="s">
+      <c r="D11" s="62"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="Q11" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <f>C8-C11</f>
         <v>1799.1950000000002</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="F12" s="19" t="s">
+      <c r="D12" s="63"/>
+      <c r="F12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="F13" s="20" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="F14" s="20" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="32" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="47"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="13">
+      <c r="C22" s="49"/>
+      <c r="D22" s="11">
         <v>153</v>
       </c>
-      <c r="J22" s="46"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="13">
+      <c r="C23" s="49"/>
+      <c r="D23" s="11">
         <v>315</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="16">
+      <c r="C24" s="51"/>
+      <c r="D24" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="46">
         <v>2003</v>
       </c>
-      <c r="D29" s="40"/>
+      <c r="D29" s="47"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="46">
         <v>2015</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="26"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="40"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="29"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="29"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="27" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C36" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="44"/>
+      <c r="D36" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
+  <mergeCells count="18">
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -1446,9 +1571,15 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{30531D17-5AB3-4381-A18C-6F1F3D563116}"/>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{30531D17-5AB3-4381-A18C-6F1F3D563116}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
@@ -1460,18 +1591,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470FD1B7-680A-534C-9F3A-8B394691D61E}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="9.125" style="48"/>
+    <col min="3" max="17" width="9.125" style="34"/>
     <col min="18" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
@@ -1479,191 +1610,207 @@
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="18"/>
-    </row>
-    <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="21" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="49">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57">
         <v>1366.1</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="57">
         <v>1508.5</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="57">
         <v>325.7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="57">
         <v>732.1</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="18"/>
-    </row>
-    <row r="4" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="21" t="s">
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="58"/>
+    </row>
+    <row r="4" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="49">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57">
         <v>953</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="57">
         <v>1252.8</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="57">
         <v>413.3</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="57">
         <v>931.4</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="18"/>
-    </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="58"/>
+    </row>
+    <row r="5" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33">
         <f>I3+I4</f>
         <v>2319.1</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="33">
         <f>J3+J4</f>
         <v>2761.3</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="33">
         <f>K3+K4</f>
         <v>739</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="33">
         <f>L3+L4</f>
         <v>1663.5</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="18"/>
-    </row>
-    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49">
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57">
         <v>132.9</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="57">
         <v>220.5</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="58"/>
+    </row>
+    <row r="7" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="48">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60">
         <v>347.5</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="60">
         <v>649</v>
       </c>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="34">
         <f>K7+K6</f>
         <v>480.4</v>
       </c>
-      <c r="L8" s="48">
+      <c r="L8" s="34">
         <f>L7+L6</f>
         <v>869.5</v>
       </c>
@@ -1672,19 +1819,19 @@
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36">
         <f>K5-K8</f>
         <v>258.60000000000002</v>
       </c>
-      <c r="L9" s="50">
+      <c r="L9" s="36">
         <f>L5-L8</f>
         <v>794</v>
       </c>
@@ -1693,10 +1840,10 @@
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="34">
         <v>19.600000000000001</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="34">
         <v>43.4</v>
       </c>
     </row>
@@ -1704,10 +1851,10 @@
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="34">
         <v>165.7</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="34">
         <v>170.4</v>
       </c>
     </row>
@@ -1715,10 +1862,10 @@
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="34">
         <v>254.9</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="34">
         <v>545.9</v>
       </c>
     </row>
@@ -1726,10 +1873,10 @@
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="34">
         <v>345.3</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="34">
         <v>446.3</v>
       </c>
     </row>
@@ -1737,10 +1884,10 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="34">
         <v>1.2</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="34">
         <v>53.2</v>
       </c>
     </row>
@@ -1748,19 +1895,19 @@
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36">
         <f>K9-K10-K11-K12-K13-K14</f>
         <v>-528.1</v>
       </c>
-      <c r="L15" s="50">
+      <c r="L15" s="36">
         <f>L9-L10-L11-L12-L13-L14</f>
         <v>-465.19999999999993</v>
       </c>
@@ -1769,18 +1916,18 @@
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="48">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="34">
         <v>11.6</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="34">
         <v>2.8</v>
       </c>
     </row>
@@ -1788,18 +1935,18 @@
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="48">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="34">
         <v>78.400000000000006</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="34">
         <v>89.5</v>
       </c>
     </row>
@@ -1807,18 +1954,18 @@
       <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="48">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="34">
         <v>28.4</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="34">
         <v>89.5</v>
       </c>
     </row>
@@ -1826,19 +1973,19 @@
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="48">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="34">
         <f>K15+K16-K17-K18</f>
         <v>-623.29999999999995</v>
       </c>
-      <c r="L19" s="48">
+      <c r="L19" s="34">
         <f>L15+L16-L17-L18</f>
         <v>-641.39999999999986</v>
       </c>
@@ -1847,18 +1994,18 @@
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="48">
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="34">
         <v>9.5</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="34">
         <v>0.9</v>
       </c>
     </row>
@@ -1866,19 +2013,19 @@
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="48">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="34">
         <f>K19-K20</f>
         <v>-632.79999999999995</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L21" s="34">
         <f>L19-L20</f>
         <v>-642.29999999999984</v>
       </c>
@@ -1887,11 +2034,11 @@
       <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="48">
+      <c r="K22" s="34">
         <f>K21/K23</f>
         <v>-7.3972202536825717</v>
       </c>
-      <c r="L22" s="48">
+      <c r="L22" s="34">
         <f>L21/L23</f>
         <v>-6.5002008706787802</v>
       </c>
@@ -1900,10 +2047,10 @@
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="48">
+      <c r="K23" s="34">
         <v>85.545648</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="34">
         <v>98.812331</v>
       </c>
     </row>
@@ -1911,19 +2058,19 @@
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="37">
         <f>I9/I5</f>
         <v>0</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="37">
         <f>J9/J5</f>
         <v>0</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="37">
         <f>K9/K5</f>
         <v>0.34993234100135323</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="37">
         <f>L9/L5</f>
         <v>0.47730688307784791</v>
       </c>
@@ -1932,19 +2079,19 @@
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="37">
         <f>I15/I5</f>
         <v>0</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="37">
         <f>J15/J5</f>
         <v>0</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="37">
         <f>K15/K5</f>
         <v>-0.71461434370771315</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="37">
         <f>L15/L5</f>
         <v>-0.27965133754132848</v>
       </c>
@@ -1953,19 +2100,19 @@
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="37">
         <f>I21/I5</f>
         <v>0</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="37">
         <f>J21/J5</f>
         <v>0</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="37">
         <f>K21/K5</f>
         <v>-0.85629228687415415</v>
       </c>
-      <c r="L27" s="51">
+      <c r="L27" s="37">
         <f>L21/L5</f>
         <v>-0.38611361587015319</v>
       </c>
@@ -1974,58 +2121,58 @@
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="37">
         <f>I20/I5</f>
         <v>0</v>
       </c>
-      <c r="J28" s="51">
+      <c r="J28" s="37">
         <f>J20/J5</f>
         <v>0</v>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="37">
         <f>K20/K5</f>
         <v>1.2855209742895805E-2</v>
       </c>
-      <c r="L28" s="51">
+      <c r="L28" s="37">
         <f>L20/L5</f>
         <v>5.4102795311091075E-4</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40">
         <f>J5/I5-1</f>
         <v>0.1906774179638655</v>
       </c>
-      <c r="K30" s="54">
+      <c r="K30" s="40">
         <f>K5/J5-1</f>
         <v>-0.73237243327418244</v>
       </c>
-      <c r="L30" s="54">
+      <c r="L30" s="40">
         <f>L5/K5-1</f>
         <v>1.2510148849797025</v>
       </c>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
@@ -2033,7 +2180,7 @@
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="20" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2101,16 +2248,16 @@
       <c r="B47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
